--- a/ropero.xlsx
+++ b/ropero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11b543ea19193bd7/Documentos/ropero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="773" documentId="8_{261B0049-BF1A-406E-9A5F-2E0B759B3D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13130160-F33C-4638-ABC7-1BB616DBEF30}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="8_{261B0049-BF1A-406E-9A5F-2E0B759B3D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AEEE710-3361-4E5A-8EFC-FBFD4CD943E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="183">
   <si>
     <t>PRENDA</t>
   </si>
@@ -631,11 +631,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,8 +963,8 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,6 +972,7 @@
     <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="11" max="12" width="11.5546875" style="5"/>
     <col min="13" max="13" width="17.6640625" customWidth="1"/>
     <col min="14" max="14" width="22.88671875" customWidth="1"/>
   </cols>
@@ -1001,10 +1008,10 @@
       <c r="J1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1045,10 +1052,10 @@
       <c r="J2" t="s">
         <v>182</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="2">
@@ -1089,14 +1096,17 @@
       <c r="J3" t="s">
         <v>182</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>9.99</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M3" s="2">
         <v>44974</v>
+      </c>
+      <c r="N3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1130,10 +1140,10 @@
       <c r="J4" t="s">
         <v>182</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>7.99</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M4" s="2">
@@ -1174,14 +1184,17 @@
       <c r="J5" t="s">
         <v>182</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>54.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>44970</v>
+      </c>
+      <c r="N5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1215,10 +1228,10 @@
       <c r="J6" t="s">
         <v>182</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>15</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M6" s="2">
@@ -1259,10 +1272,10 @@
       <c r="J7" t="s">
         <v>182</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>22</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M7" s="2">
@@ -1303,14 +1316,17 @@
       <c r="J8" t="s">
         <v>182</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>45</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>45163</v>
+      </c>
+      <c r="N8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1344,14 +1360,17 @@
       <c r="J9" t="s">
         <v>182</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>39</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>45163</v>
+      </c>
+      <c r="N9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1385,14 +1404,17 @@
       <c r="J10" t="s">
         <v>182</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>19</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>38</v>
       </c>
       <c r="M10" s="2">
         <v>44995</v>
+      </c>
+      <c r="N10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1426,14 +1448,17 @@
       <c r="J11" t="s">
         <v>182</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>25</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>38</v>
       </c>
       <c r="M11" s="2">
         <v>43440</v>
+      </c>
+      <c r="N11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1467,14 +1492,17 @@
       <c r="J12" t="s">
         <v>182</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>38</v>
       </c>
       <c r="M12" s="2">
         <v>44387</v>
+      </c>
+      <c r="N12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1508,14 +1536,17 @@
       <c r="J13" t="s">
         <v>182</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>10.99</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>38</v>
       </c>
       <c r="M13" s="2">
         <v>45061</v>
+      </c>
+      <c r="N13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1549,14 +1580,17 @@
       <c r="J14" t="s">
         <v>182</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>80</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="2">
         <v>42887</v>
+      </c>
+      <c r="N14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1590,14 +1624,17 @@
       <c r="J15" t="s">
         <v>182</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>5</v>
       </c>
       <c r="M15" s="2">
         <v>44538</v>
+      </c>
+      <c r="N15" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1631,14 +1668,17 @@
       <c r="J16" t="s">
         <v>182</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>24.5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>5</v>
       </c>
       <c r="M16" s="2">
         <v>44577</v>
+      </c>
+      <c r="N16" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1672,14 +1712,17 @@
       <c r="J17" t="s">
         <v>182</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>40</v>
       </c>
       <c r="M17" s="2">
         <v>44387</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1713,10 +1756,10 @@
       <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>40</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>36</v>
       </c>
       <c r="M18" s="2">
@@ -1757,10 +1800,10 @@
       <c r="J19" t="s">
         <v>182</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="M19" s="2">
@@ -1801,10 +1844,10 @@
       <c r="J20" t="s">
         <v>182</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>18</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M20" s="2">
@@ -1845,10 +1888,10 @@
       <c r="J21" t="s">
         <v>182</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>24</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M21" s="2">
@@ -1889,10 +1932,10 @@
       <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M22" s="2">
@@ -1933,10 +1976,10 @@
       <c r="J23" t="s">
         <v>182</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>10.39</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M23" s="2">
@@ -1977,14 +2020,17 @@
       <c r="J24" t="s">
         <v>182</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>5.94</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M24" s="2">
         <v>44599</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2018,14 +2064,17 @@
       <c r="J25" t="s">
         <v>182</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <v>12.79</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M25" s="2">
         <v>44599</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -2059,14 +2108,17 @@
       <c r="J26" t="s">
         <v>182</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>10.39</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M26" s="2">
         <v>44599</v>
+      </c>
+      <c r="N26" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2100,14 +2152,17 @@
       <c r="J27" t="s">
         <v>182</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>10.39</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M27" s="2">
         <v>44599</v>
+      </c>
+      <c r="N27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2141,10 +2196,10 @@
       <c r="J28" t="s">
         <v>152</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>10</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="2">
@@ -2185,10 +2240,10 @@
       <c r="J29" t="s">
         <v>61</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <v>30</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M29" s="2">
@@ -2229,10 +2284,10 @@
       <c r="J30" t="s">
         <v>61</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>10</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="2">
@@ -2271,13 +2326,19 @@
         <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31">
+        <v>182</v>
+      </c>
+      <c r="K31" s="5">
         <v>30</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="M31" s="2">
         <v>43337</v>
+      </c>
+      <c r="N31" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2311,10 +2372,10 @@
       <c r="J32" t="s">
         <v>182</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>12.99</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M32" s="2">
@@ -2355,14 +2416,17 @@
       <c r="J33" t="s">
         <v>182</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>8</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M33" s="2">
         <v>43748</v>
+      </c>
+      <c r="N33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2396,10 +2460,10 @@
       <c r="J34" t="s">
         <v>182</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>17</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M34" s="2">
@@ -2440,10 +2504,10 @@
       <c r="J35" t="s">
         <v>154</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>20</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="5" t="s">
         <v>93</v>
       </c>
       <c r="M35" s="2">
@@ -2484,10 +2548,10 @@
       <c r="J36" t="s">
         <v>158</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <v>10</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="5" t="s">
         <v>93</v>
       </c>
       <c r="M36" s="2">
@@ -2528,14 +2592,17 @@
       <c r="J37" t="s">
         <v>159</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>17</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M37" s="2">
         <v>44752</v>
+      </c>
+      <c r="N37" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2569,14 +2636,17 @@
       <c r="J38" t="s">
         <v>154</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <v>15</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="5" t="s">
         <v>93</v>
       </c>
       <c r="M38" s="2">
         <v>44039</v>
+      </c>
+      <c r="N38" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2610,10 +2680,10 @@
       <c r="J39" t="s">
         <v>182</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <v>12</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M39" s="2">
@@ -2654,14 +2724,17 @@
       <c r="J40" t="s">
         <v>182</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <v>5.99</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M40" s="2">
         <v>43337</v>
+      </c>
+      <c r="N40" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2695,14 +2768,17 @@
       <c r="J41" t="s">
         <v>182</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>15</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="5" t="s">
         <v>65</v>
       </c>
       <c r="M41" s="2">
         <v>44484</v>
+      </c>
+      <c r="N41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2736,14 +2812,17 @@
       <c r="J42" t="s">
         <v>182</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
         <v>3.99</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="M42" s="2">
         <v>45105</v>
+      </c>
+      <c r="N42" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2777,14 +2856,17 @@
       <c r="J43" t="s">
         <v>182</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <v>12</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M43" s="2">
         <v>44728</v>
+      </c>
+      <c r="N43" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2818,14 +2900,17 @@
       <c r="J44" t="s">
         <v>162</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <v>12.5</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M44" s="2">
         <v>44749</v>
+      </c>
+      <c r="N44" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2859,14 +2944,17 @@
       <c r="J45" t="s">
         <v>182</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <v>7.99</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <v>26</v>
       </c>
       <c r="M45" s="2">
         <v>44953</v>
+      </c>
+      <c r="N45" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2900,11 +2988,17 @@
       <c r="J46" t="s">
         <v>182</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <v>7.99</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="M46" s="2">
         <v>44571</v>
+      </c>
+      <c r="N46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2924,7 +3018,7 @@
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
         <v>96</v>
@@ -2938,11 +3032,17 @@
       <c r="J47" t="s">
         <v>182</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <v>4.99</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="M47" s="2">
         <v>44349</v>
+      </c>
+      <c r="N47" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2976,14 +3076,17 @@
       <c r="J48" t="s">
         <v>163</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <v>12</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="5" t="s">
         <v>66</v>
       </c>
       <c r="M48" s="2">
         <v>44039</v>
+      </c>
+      <c r="N48" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
